--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -1564,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>970.2</v>
+        <v>2233.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1599,7 @@
         <v>1679.0</v>
       </c>
       <c r="D6" t="n">
-        <v>73.05710162853019</v>
+        <v>-24.81304016837578</v>
       </c>
     </row>
     <row r="7">
@@ -1613,7 +1613,7 @@
         <v>2351.0</v>
       </c>
       <c r="D7" t="n">
-        <v>142.32117089259947</v>
+        <v>5.2796560834714334</v>
       </c>
     </row>
     <row r="8">
@@ -1627,7 +1627,7 @@
         <v>2690.0</v>
       </c>
       <c r="D8" t="n">
-        <v>177.26242011956296</v>
+        <v>20.460346603376504</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1641,7 @@
         <v>2318.0</v>
       </c>
       <c r="D9" t="n">
-        <v>138.91981034838176</v>
+        <v>3.8018897496753645</v>
       </c>
     </row>
     <row r="10">

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -196,19 +196,22 @@
     <t>NACELLE 2</t>
   </si>
   <si>
+    <t>Total Dry Mass</t>
+  </si>
+  <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH ENGINE</t>
   </si>
   <si>
     <t>ENGINE 1</t>
   </si>
   <si>
+    <t>Dry Mass</t>
+  </si>
+  <si>
     <t>Total Mass</t>
   </si>
   <si>
     <t>ENGINE 2</t>
-  </si>
-  <si>
-    <t>Overall Mass</t>
   </si>
   <si>
     <t>STANFORD</t>
@@ -298,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1598.2719999999995</v>
+        <v>1598.272</v>
       </c>
     </row>
     <row r="3">
@@ -336,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>58802.60515264417</v>
+        <v>57360.96753359655</v>
       </c>
     </row>
     <row r="7">
@@ -347,7 +350,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>576656.5678201779</v>
+        <v>562518.9322633445</v>
       </c>
     </row>
     <row r="8">
@@ -358,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>58893.740866929904</v>
+        <v>57925.350866929904</v>
       </c>
     </row>
     <row r="9">
@@ -369,7 +372,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>577550.303872678</v>
+        <v>568053.642079178</v>
       </c>
     </row>
     <row r="10">
@@ -380,7 +383,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>53004.36678023691</v>
+        <v>52132.81578023691</v>
       </c>
     </row>
     <row r="11">
@@ -391,7 +394,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>519795.27348541014</v>
+        <v>511248.2778712602</v>
       </c>
     </row>
     <row r="12">
@@ -468,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>46934.674187649245</v>
+        <v>45966.284187649246</v>
       </c>
     </row>
     <row r="19">
@@ -479,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>460271.92262231035</v>
+        <v>450775.2608288104</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>46934.674187649245</v>
+        <v>45966.284187649246</v>
       </c>
     </row>
     <row r="21">
@@ -501,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>460271.92262231035</v>
+        <v>450775.2608288104</v>
       </c>
     </row>
     <row r="22">
@@ -512,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>34064.674187649245</v>
+        <v>33096.284187649246</v>
       </c>
     </row>
     <row r="23">
@@ -523,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>334060.3371223104</v>
+        <v>324563.67532881047</v>
       </c>
     </row>
     <row r="24">
@@ -534,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>33335.58689664924</v>
+        <v>32367.196896649246</v>
       </c>
     </row>
     <row r="25">
@@ -545,7 +548,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>326910.4332400252</v>
+        <v>317413.77144652524</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>31659.48689664925</v>
+        <v>31516.98689664925</v>
       </c>
     </row>
     <row r="27">
@@ -567,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>310473.5071750253</v>
+        <v>309076.0595500253</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>1946.1</v>
+        <v>1120.21</v>
       </c>
     </row>
     <row r="29">
@@ -589,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>19084.721564999996</v>
+        <v>10985.507396499997</v>
       </c>
     </row>
     <row r="30">
@@ -622,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>34064.674187649245</v>
+        <v>33096.284187649246</v>
       </c>
     </row>
     <row r="33">
@@ -633,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>334060.3371223104</v>
+        <v>324563.67532881047</v>
       </c>
     </row>
   </sheetData>
@@ -717,10 +720,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>3270.0</v>
+        <v>3243.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-34.661418266829166</v>
+        <v>-35.20091114352507</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +734,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>6066.0</v>
+        <v>5985.0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.20606629768021</v>
+        <v>19.58758766759249</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +748,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2730.0</v>
+        <v>2661.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.45127580074728</v>
+        <v>-46.82997981897015</v>
       </c>
     </row>
     <row r="10">
@@ -787,7 +790,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4580.333333333332</v>
+        <v>4550.833333333332</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.068808653199328</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>4556.929999999999</v>
+        <v>3209.0999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -868,10 +874,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5567.0</v>
+        <v>5486.0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.16558077477604</v>
+        <v>70.95135707830859</v>
       </c>
     </row>
     <row r="8">
@@ -882,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4377.0</v>
+        <v>4312.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.948491638010646</v>
+        <v>34.3678913090898</v>
       </c>
     </row>
     <row r="9">
@@ -896,10 +902,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2853.0</v>
+        <v>2789.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.392060005310576</v>
+        <v>-13.090897759496416</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +919,7 @@
         <v>5208.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.28746985360762</v>
+        <v>62.28849210058898</v>
       </c>
     </row>
     <row r="11">
@@ -924,10 +930,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5903.0</v>
+        <v>5816.0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.538965926621692</v>
+        <v>81.23461406624914</v>
       </c>
     </row>
     <row r="12">
@@ -938,10 +944,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>5083.0</v>
+        <v>5016.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.544395020331708</v>
+        <v>56.3055062166963</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +958,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4141.5714285714275</v>
+        <v>4089.5714285714284</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.43670900163374</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>683.5394999999999</v>
+        <v>548.3</v>
       </c>
     </row>
     <row r="3">
@@ -1000,7 +1009,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1034,7 +1045,7 @@
         <v>729.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.650749517767466</v>
+        <v>32.956410724056184</v>
       </c>
     </row>
     <row r="8">
@@ -1045,10 +1056,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65.32753410739247</v>
+        <v>-56.95786977931789</v>
       </c>
     </row>
     <row r="9">
@@ -1059,10 +1070,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>476.0</v>
+        <v>468.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.362473565902174</v>
+        <v>-14.645267189494795</v>
       </c>
     </row>
     <row r="10">
@@ -1073,7 +1084,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>480.66666666666663</v>
+        <v>477.66666666666663</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-12.882242081585488</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>683.5394999999999</v>
+        <v>452.69999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -1121,7 +1135,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1155,7 +1171,7 @@
         <v>539.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.14574212609511</v>
+        <v>19.063397393417294</v>
       </c>
     </row>
     <row r="8">
@@ -1166,10 +1182,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>415.0</v>
+        <v>413.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.28661035682648</v>
+        <v>-8.769604594654282</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1196,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>477.0</v>
+        <v>476.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.1468963993814905</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>818.7999999999997</v>
+        <v>1306.7999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -1232,7 +1251,7 @@
         <v>620.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-24.198013352874117</v>
+        <v>-84.1682821480801</v>
       </c>
     </row>
     <row r="4">
@@ -1262,9 +1281,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>409.4</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1277,7 +1294,7 @@
         <v>374.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.64680019540791</v>
+        <v>-42.76094276094275</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1308,7 @@
         <v>249.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-39.17928676111382</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="11">
@@ -1305,7 +1322,7 @@
         <v>308.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.76795310210063</v>
+        <v>-52.86195286195285</v>
       </c>
     </row>
     <row r="12">
@@ -1336,9 +1353,7 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>409.4</v>
-      </c>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1351,7 +1366,7 @@
         <v>374.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.64680019540791</v>
+        <v>-42.76094276094275</v>
       </c>
     </row>
     <row r="17">
@@ -1365,7 +1380,7 @@
         <v>249.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-39.17928676111382</v>
+        <v>-61.891643709825516</v>
       </c>
     </row>
     <row r="18">
@@ -1379,7 +1394,7 @@
         <v>308.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-24.76795310210063</v>
+        <v>-52.86195286195285</v>
       </c>
     </row>
     <row r="19">
@@ -1421,13 +1436,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1446,9 +1458,6 @@
       <c r="C3" t="n">
         <v>12462.599999999995</v>
       </c>
-      <c r="D3" t="n">
-        <v>-24.198013352874117</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1457,7 +1466,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1467,12 +1476,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1483,7 +1492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1499,12 +1508,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1515,7 +1524,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1569,90 +1578,82 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2317.5275133713235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-26.46992969414713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1679.0</v>
+        <v>2289.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.81304016837578</v>
+        <v>2.503246607854577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2351.0</v>
+        <v>2615.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.2796560834714334</v>
+        <v>17.101786753839985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2690.0</v>
+        <v>2264.0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.460346603376504</v>
+        <v>1.3837266580090706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2318.0</v>
+        <v>2202.5</v>
       </c>
       <c r="D9" t="n">
-        <v>3.8018897496753645</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2259.5</v>
+        <v>-1.3702924186108956</v>
       </c>
     </row>
   </sheetData>
@@ -1690,53 +1691,45 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>4283.0</v>
+        <v>1822.772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4286.148801411175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4286.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>135.13637470841115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4286.0</v>
+        <v>4286.148801411175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07004436142890497</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4286.0</v>
+        <v>135.14453817653407</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -55,79 +55,79 @@
     <t>Maximum Take-Off Mass</t>
   </si>
   <si>
+    <t>Take-Off Mass</t>
+  </si>
+  <si>
+    <t>Maximum Landing Mass</t>
+  </si>
+  <si>
+    <t>Maximum Passengers Mass</t>
+  </si>
+  <si>
+    <t>Fuel Mass</t>
+  </si>
+  <si>
+    <t>Crew Mass</t>
+  </si>
+  <si>
+    <t>Maximum Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Operating Empty Mass</t>
+  </si>
+  <si>
+    <t>Empty Mass</t>
+  </si>
+  <si>
+    <t>Manufacturer Empty Mass</t>
+  </si>
+  <si>
+    <t>Operating Item Mass</t>
+  </si>
+  <si>
+    <t>Trapped Fuel Oil Mass</t>
+  </si>
+  <si>
     <t>Maximum Take-Off Weight</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Take-Off Mass</t>
-  </si>
-  <si>
     <t>Take-Off Weight</t>
   </si>
   <si>
-    <t>Maximum Landing Mass</t>
-  </si>
-  <si>
     <t>Maximum Landing Weight</t>
   </si>
   <si>
-    <t>Maximum Passengers Mass</t>
-  </si>
-  <si>
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
-    <t>Fuel Mass</t>
-  </si>
-  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
-    <t>Crew Mass</t>
-  </si>
-  <si>
     <t>Crew Weight</t>
   </si>
   <si>
-    <t>Maximum Zero Fuel Mass</t>
-  </si>
-  <si>
     <t>Maximum Zero Fuel Weight</t>
   </si>
   <si>
-    <t>Zero Fuel Mass</t>
-  </si>
-  <si>
     <t>Zero Fuel Weight</t>
   </si>
   <si>
-    <t>Operating Empty Mass</t>
-  </si>
-  <si>
     <t>Operating Empty Weight</t>
   </si>
   <si>
-    <t>Empty Mass</t>
-  </si>
-  <si>
     <t>Empty Weight</t>
   </si>
   <si>
-    <t>Manufacturer Empty Mass</t>
-  </si>
-  <si>
     <t>Manufacturer Empty Weight</t>
   </si>
   <si>
-    <t>Operating Item Mass</t>
-  </si>
-  <si>
     <t>Operating Item Weight</t>
-  </si>
-  <si>
-    <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -347,296 +347,279 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>562518.9322633445</v>
+        <v>57925.350866929904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>57925.350866929904</v>
+        <v>52132.81578023691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>568053.642079178</v>
+        <v>12870.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>52132.81578023691</v>
+        <v>11959.066679280662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>511248.2778712602</v>
+        <v>459.08729100000005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>12870.0</v>
+        <v>45966.284187649246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>126211.58549999996</v>
+        <v>45966.284187649246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11959.066679280662</v>
+        <v>33096.284187649246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>117278.38125036767</v>
+        <v>32367.196896649246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>459.08729100000005</v>
+        <v>31516.98689664925</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>4502.108382285149</v>
+        <v>1120.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>45966.284187649246</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="n">
-        <v>450775.2608288104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>45966.284187649246</v>
+        <v>562518.9322633445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>450775.2608288104</v>
+        <v>568053.642079178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>33096.284187649246</v>
+        <v>511248.2778712602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>324563.67532881047</v>
+        <v>126211.58549999996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>32367.196896649246</v>
+        <v>117278.38125036767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>317413.77144652524</v>
+        <v>4502.108382285149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>31516.98689664925</v>
+        <v>450775.2608288104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>309076.0595500253</v>
+        <v>450775.2608288104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>1120.21</v>
+        <v>324563.67532881047</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>10985.507396499997</v>
+        <v>317413.77144652524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>270.0</v>
+        <v>309076.0595500253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>2647.7954999999993</v>
+        <v>10985.507396499997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>33096.284187649246</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="n">
-        <v>324563.67532881047</v>
+        <v>2647.7954999999993</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>57360.96753359655</v>
+        <v>57361.63420026322</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>57925.350866929904</v>
+        <v>57926.017533596576</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>52132.81578023691</v>
+        <v>52133.415780236915</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>45966.284187649246</v>
+        <v>45966.95085431592</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>45966.284187649246</v>
+        <v>45966.95085431592</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>33096.284187649246</v>
+        <v>33096.95085431592</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>32367.196896649246</v>
+        <v>32367.863563315914</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>31516.98689664925</v>
+        <v>31517.653563315922</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>562518.9322633445</v>
+        <v>562525.4700300111</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>568053.642079178</v>
+        <v>568060.1798458446</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>511248.2778712602</v>
+        <v>511254.1618612602</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>450775.2608288104</v>
+        <v>450781.798595477</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>450775.2608288104</v>
+        <v>450781.798595477</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>324563.67532881047</v>
+        <v>324570.2130954771</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>317413.77144652524</v>
+        <v>317420.30921319197</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>309076.0595500253</v>
+        <v>309082.597316692</v>
       </c>
     </row>
     <row r="31">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>468.0</v>
+        <v>470.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.645267189494795</v>
+        <v>-14.280503374065285</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>477.66666666666663</v>
+        <v>478.33333333333326</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.882242081585488</v>
+        <v>-12.760654143108994</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>57361.63420026322</v>
+        <v>57358.00562883465</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>57926.017533596576</v>
+        <v>57922.16039073943</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>52133.415780236915</v>
+        <v>52129.94435166549</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>45966.95085431592</v>
+        <v>45963.09371145877</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>45966.95085431592</v>
+        <v>45963.09371145877</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>33096.95085431592</v>
+        <v>33093.09371145877</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>32367.863563315914</v>
+        <v>32364.006420458772</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>31517.653563315922</v>
+        <v>31513.796420458777</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>562525.4700300111</v>
+        <v>562489.8859000112</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>568060.1798458446</v>
+        <v>568022.3541958446</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>511254.1618612602</v>
+        <v>511220.11877626023</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>450781.798595477</v>
+        <v>450743.97294547706</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>450781.798595477</v>
+        <v>450743.97294547706</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>324570.2130954771</v>
+        <v>324532.3874454771</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>317420.30921319197</v>
+        <v>317382.48356319196</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>309082.597316692</v>
+        <v>309044.771666692</v>
       </c>
     </row>
     <row r="31">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4312.0</v>
+        <v>4286.0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.3678913090898</v>
+        <v>33.55769530397933</v>
       </c>
     </row>
     <row r="9">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>5016.0</v>
+        <v>5015.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3055062166963</v>
+        <v>56.274344831884356</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4089.5714285714284</v>
+        <v>4085.7142857142853</v>
       </c>
       <c r="D13" t="n">
-        <v>27.43670900163374</v>
+        <v>27.31651508878769</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>57358.00562883465</v>
+        <v>57381.743724072745</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>57922.16039073943</v>
+        <v>57946.24372407276</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>52129.94435166549</v>
+        <v>52151.61935166548</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>45963.09371145877</v>
+        <v>45987.1770447921</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>45963.09371145877</v>
+        <v>45987.1770447921</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>33093.09371145877</v>
+        <v>33117.17704479211</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>32364.006420458772</v>
+        <v>32388.089753792105</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>31513.796420458777</v>
+        <v>31537.879753792113</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>562489.8859000112</v>
+        <v>562722.6770916779</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>568022.3541958446</v>
+        <v>568258.5310166781</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>511220.11877626023</v>
+        <v>511432.6779150102</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>450743.97294547706</v>
+        <v>450980.14976631035</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>450743.97294547706</v>
+        <v>450980.14976631035</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>324532.3874454771</v>
+        <v>324768.5642663104</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>317382.48356319196</v>
+        <v>317618.6603840253</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>309044.771666692</v>
+        <v>309280.94848752534</v>
       </c>
     </row>
     <row r="31">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>5985.0</v>
+        <v>5986.0</v>
       </c>
       <c r="D8" t="n">
-        <v>19.58758766759249</v>
+        <v>19.607568885247893</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2661.0</v>
+        <v>2662.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.82997981897015</v>
+        <v>-46.80999860131475</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4550.833333333332</v>
+        <v>4551.166666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.068808653199328</v>
+        <v>-9.06214824731418</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5486.0</v>
+        <v>5487.0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.95135707830859</v>
+        <v>70.98251846312053</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4286.0</v>
+        <v>4287.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.55769530397933</v>
+        <v>33.588856688791275</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2789.0</v>
+        <v>2790.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.090897759496416</v>
+        <v>-13.059736374684475</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5816.0</v>
+        <v>5818.0</v>
       </c>
       <c r="D11" t="n">
-        <v>81.23461406624914</v>
+        <v>81.29693683587301</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>5015.0</v>
+        <v>5017.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.274344831884356</v>
+        <v>56.33666760150824</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4085.7142857142853</v>
+        <v>4086.7142857142853</v>
       </c>
       <c r="D13" t="n">
-        <v>27.31651508878769</v>
+        <v>27.347676473599634</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>620.6666666666665</v>
+        <v>642.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-84.1682821480801</v>
+        <v>-83.6071149202462</v>
       </c>
     </row>
     <row r="4">
@@ -1274,10 +1274,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>374.0</v>
+        <v>392.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.76094276094275</v>
+        <v>-40.00612182430363</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>308.0</v>
+        <v>323.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.86195286195285</v>
+        <v>-50.56626874808692</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>310.33333333333326</v>
+        <v>321.33333333333326</v>
       </c>
     </row>
     <row r="13">
@@ -1346,10 +1346,10 @@
         <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>374.0</v>
+        <v>392.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-42.76094276094275</v>
+        <v>-40.00612182430363</v>
       </c>
     </row>
     <row r="17">
@@ -1374,10 +1374,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>308.0</v>
+        <v>323.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52.86195286195285</v>
+        <v>-50.56626874808692</v>
       </c>
     </row>
     <row r="19">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>310.33333333333326</v>
+        <v>321.33333333333326</v>
       </c>
     </row>
     <row r="20">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2289.0</v>
+        <v>2290.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.503246607854577</v>
+        <v>2.5480274058483974</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2615.0</v>
+        <v>2616.0</v>
       </c>
       <c r="D7" t="n">
-        <v>17.101786753839985</v>
+        <v>17.146567551833805</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2264.0</v>
+        <v>2265.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3837266580090706</v>
+        <v>1.4285074560028908</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2202.5</v>
+        <v>2203.25</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.3702924186108956</v>
+        <v>-1.3367068201155303</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>57381.743724072745</v>
+        <v>60132.19372407274</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>57946.24372407276</v>
+        <v>60925.74372407276</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>52151.61935166548</v>
+        <v>54833.16935166548</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>45987.1770447921</v>
+        <v>48966.6770447921</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>45987.1770447921</v>
+        <v>48966.6770447921</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>33117.17704479211</v>
+        <v>36096.6770447921</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>32388.089753792105</v>
+        <v>35367.5897537921</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>31537.879753792113</v>
+        <v>34517.379753792105</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>562722.6770916779</v>
+        <v>589695.3775841778</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>568258.5310166781</v>
+        <v>597477.4446916779</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>511432.6779150102</v>
+        <v>537729.7002225101</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>450980.14976631035</v>
+        <v>480199.06344131037</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>450980.14976631035</v>
+        <v>480199.06344131037</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>324768.5642663104</v>
+        <v>353987.4779413104</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>317618.6603840253</v>
+        <v>346837.57405902515</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>309280.94848752534</v>
+        <v>338499.8621625253</v>
       </c>
     </row>
     <row r="31">
@@ -689,10 +689,10 @@
         <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>2394.0</v>
+        <v>8026.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.164964932963</v>
+        <v>60.3692529022719</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>3243.0</v>
+        <v>5994.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-35.20091114352507</v>
+        <v>19.767418626491125</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>5986.0</v>
+        <v>6125.0</v>
       </c>
       <c r="D8" t="n">
-        <v>19.607568885247893</v>
+        <v>22.38495813934904</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2662.0</v>
+        <v>6929.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.80999860131475</v>
+        <v>38.449857134293794</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4551.166666666666</v>
+        <v>6682.666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.06214824731418</v>
+        <v>33.52781718517927</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5487.0</v>
+        <v>5673.0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.98251846312053</v>
+        <v>76.77853603814157</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4287.0</v>
+        <v>4398.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.588856688791275</v>
+        <v>37.04777040291673</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2790.0</v>
+        <v>5802.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.059736374684475</v>
+        <v>80.79835467888196</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5818.0</v>
+        <v>6078.0</v>
       </c>
       <c r="D11" t="n">
-        <v>81.29693683587301</v>
+        <v>89.3988968869777</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>5017.0</v>
+        <v>5172.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.33666760150824</v>
+        <v>61.1666822473591</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4086.7142857142853</v>
+        <v>4618.714285714284</v>
       </c>
       <c r="D13" t="n">
-        <v>27.347676473599634</v>
+        <v>43.92553319355225</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1039,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>236.0</v>
+        <v>237.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-56.95786977931789</v>
+        <v>-56.77548787160313</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>470.0</v>
+        <v>484.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.280503374065285</v>
+        <v>-11.72715666605872</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>478.33333333333326</v>
+        <v>483.33333333333326</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.760654143108994</v>
+        <v>-11.848744604535218</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>413.0</v>
+        <v>417.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.769604594654282</v>
+        <v>-7.886017229953598</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>476.0</v>
+        <v>478.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.1468963993814905</v>
+        <v>5.588690081731833</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>642.6666666666665</v>
+        <v>848.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-83.6071149202462</v>
+        <v>-78.35254905961975</v>
       </c>
     </row>
     <row r="4">
@@ -1288,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>249.0</v>
+        <v>558.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-61.891643709825516</v>
+        <v>-14.600550964187308</v>
       </c>
     </row>
     <row r="11">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>321.33333333333326</v>
+        <v>424.33333333333326</v>
       </c>
     </row>
     <row r="13">
@@ -1360,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>249.0</v>
+        <v>558.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61.891643709825516</v>
+        <v>-14.600550964187308</v>
       </c>
     </row>
     <row r="18">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>321.33333333333326</v>
+        <v>424.33333333333326</v>
       </c>
     </row>
     <row r="20">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.0</v>
+        <v>1707.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-26.46992969414713</v>
+        <v>-23.55917782454881</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2290.0</v>
+        <v>2397.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5480274058483974</v>
+        <v>7.339572791187165</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2616.0</v>
+        <v>2746.0</v>
       </c>
       <c r="D7" t="n">
-        <v>17.146567551833805</v>
+        <v>22.968071291030437</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2265.0</v>
+        <v>2375.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4285074560028908</v>
+        <v>6.3543952353231195</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2203.25</v>
+        <v>2306.25</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.3367068201155303</v>
+        <v>3.2757153732479547</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>60132.19372407274</v>
+        <v>51452.94134312038</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>60925.74372407276</v>
+        <v>51452.94134312038</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>54833.16935166548</v>
+        <v>46307.64720880834</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>48966.6770447921</v>
+        <v>39493.87466383973</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>48966.6770447921</v>
+        <v>39493.87466383973</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>36096.6770447921</v>
+        <v>26623.874663839728</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>35367.5897537921</v>
+        <v>25894.787372839724</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>34517.379753792105</v>
+        <v>25044.577372839733</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>589695.3775841778</v>
+        <v>504580.9872225114</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>597477.4446916779</v>
+        <v>504580.9872225114</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>537729.7002225101</v>
+        <v>454122.8885002602</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>480199.06344131037</v>
+        <v>387302.60597214376</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>480199.06344131037</v>
+        <v>387302.60597214376</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>353987.4779413104</v>
+        <v>261091.02047214383</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>346837.57405902515</v>
+        <v>253941.11658985866</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>338499.8621625253</v>
+        <v>245603.40469335875</v>
       </c>
     </row>
     <row r="31">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5994.0</v>
+        <v>5710.0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.767418626491125</v>
+        <v>14.09275281235641</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>6125.0</v>
+        <v>5671.0</v>
       </c>
       <c r="D8" t="n">
-        <v>22.38495813934904</v>
+        <v>13.313485323795659</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>6929.0</v>
+        <v>5985.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.449857134293794</v>
+        <v>19.58758766759249</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>6682.666666666666</v>
+        <v>6402.333333333332</v>
       </c>
       <c r="D12" t="n">
-        <v>33.52781718517927</v>
+        <v>27.926415835781025</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5673.0</v>
+        <v>5078.0</v>
       </c>
       <c r="D7" t="n">
-        <v>76.77853603814157</v>
+        <v>58.23751207503664</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4398.0</v>
+        <v>4036.0</v>
       </c>
       <c r="D8" t="n">
-        <v>37.04777040291673</v>
+        <v>25.76734910099407</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>5802.0</v>
+        <v>5097.0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.79835467888196</v>
+        <v>58.829578386463524</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>6078.0</v>
+        <v>5224.0</v>
       </c>
       <c r="D11" t="n">
-        <v>89.3988968869777</v>
+        <v>62.78707425758004</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>5172.0</v>
+        <v>4676.0</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1666822473591</v>
+        <v>45.71063538063634</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4618.714285714284</v>
+        <v>4188.428571428571</v>
       </c>
       <c r="D13" t="n">
-        <v>43.92553319355225</v>
+        <v>30.517234471614202</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1039,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0</v>
+        <v>235.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-56.77548787160313</v>
+        <v>-57.140251687032645</v>
       </c>
     </row>
     <row r="9">
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>484.0</v>
+        <v>440.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.72715666605872</v>
+        <v>-19.75196060550793</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>483.33333333333326</v>
+        <v>468.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.848744604535218</v>
+        <v>-14.645267189494787</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>417.0</v>
+        <v>404.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.886017229953598</v>
+        <v>-10.757676165230823</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>478.0</v>
+        <v>471.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5.588690081731833</v>
+        <v>4.15286061409322</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>8308.399999999998</v>
+        <v>2699.999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>12462.599999999995</v>
+        <v>4049.999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>4154.199999999999</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="9">
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6231.299999999998</v>
+        <v>2024.9999999999995</v>
       </c>
     </row>
     <row r="10">
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4154.199999999999</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="13">
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>6231.299999999998</v>
+        <v>2024.9999999999995</v>
       </c>
     </row>
     <row r="14">
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1707.0</v>
+        <v>1499.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-23.55917782454881</v>
+        <v>-32.87358380726343</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2397.0</v>
+        <v>2055.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.339572791187165</v>
+        <v>-7.975460122699364</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2746.0</v>
+        <v>2336.0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.968071291030437</v>
+        <v>4.6079441135641295</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2375.0</v>
+        <v>2024.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.3543952353231195</v>
+        <v>-9.363664860507791</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2306.25</v>
+        <v>1978.5</v>
       </c>
       <c r="D9" t="n">
-        <v>3.2757153732479547</v>
+        <v>-11.401191169226626</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/IRON/WEIGHTS/Weights.xlsx
@@ -339,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>51452.94134312038</v>
+        <v>50991.47705740609</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +350,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>51452.94134312038</v>
+        <v>50991.47705740609</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>46307.64720880834</v>
+        <v>45892.32935166548</v>
       </c>
     </row>
     <row r="9">
@@ -405,7 +405,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>39493.87466383973</v>
+        <v>39032.41037812544</v>
       </c>
     </row>
     <row r="13">
@@ -416,7 +416,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>39493.87466383973</v>
+        <v>39032.41037812544</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>26623.874663839728</v>
+        <v>26162.41037812544</v>
       </c>
     </row>
     <row r="15">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>25894.787372839724</v>
+        <v>25433.323087125438</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>25044.577372839733</v>
+        <v>24583.113087125446</v>
       </c>
     </row>
     <row r="17">
@@ -487,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>504580.9872225114</v>
+        <v>500055.56848501135</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>504580.9872225114</v>
+        <v>500055.56848501135</v>
       </c>
     </row>
     <row r="22">
@@ -509,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>454122.8885002602</v>
+        <v>450050.01163651014</v>
       </c>
     </row>
     <row r="23">
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>387302.60597214376</v>
+        <v>382777.18723464373</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>387302.60597214376</v>
+        <v>382777.18723464373</v>
       </c>
     </row>
     <row r="28">
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>261091.02047214383</v>
+        <v>256565.6017346438</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>253941.11658985866</v>
+        <v>249415.69785235863</v>
       </c>
     </row>
     <row r="30">
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>245603.40469335875</v>
+        <v>241077.98595585872</v>
       </c>
     </row>
     <row r="31">
@@ -703,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5710.0</v>
+        <v>5694.0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.09275281235641</v>
+        <v>13.77305332986995</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +717,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>5671.0</v>
+        <v>5645.0</v>
       </c>
       <c r="D8" t="n">
-        <v>13.313485323795659</v>
+        <v>12.793973664755155</v>
       </c>
     </row>
     <row r="9">
@@ -731,10 +731,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>5985.0</v>
+        <v>5934.0</v>
       </c>
       <c r="D9" t="n">
-        <v>19.58758766759249</v>
+        <v>18.56854556716689</v>
       </c>
     </row>
     <row r="10">
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>6402.333333333332</v>
+        <v>6386.833333333332</v>
       </c>
       <c r="D12" t="n">
-        <v>27.926415835781025</v>
+        <v>27.61670696212227</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>5078.0</v>
+        <v>4580.0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.23751207503664</v>
+        <v>42.71914243869</v>
       </c>
     </row>
     <row r="8">
@@ -871,10 +871,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4036.0</v>
+        <v>3645.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.76734910099407</v>
+        <v>13.583247639525121</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>5097.0</v>
+        <v>4676.0</v>
       </c>
       <c r="D9" t="n">
-        <v>58.829578386463524</v>
+        <v>45.71063538063634</v>
       </c>
     </row>
     <row r="10">
@@ -899,10 +899,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>5208.0</v>
+        <v>4407.0</v>
       </c>
       <c r="D10" t="n">
-        <v>62.28849210058898</v>
+        <v>37.3282228662242</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5224.0</v>
+        <v>4775.0</v>
       </c>
       <c r="D11" t="n">
-        <v>62.78707425758004</v>
+        <v>48.79561247701851</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>4676.0</v>
+        <v>4214.0</v>
       </c>
       <c r="D12" t="n">
-        <v>45.71063538063634</v>
+        <v>31.314075597519576</v>
       </c>
     </row>
     <row r="13">
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4188.428571428571</v>
+        <v>3756.7142857142853</v>
       </c>
       <c r="D13" t="n">
-        <v>30.517234471614202</v>
+        <v>17.064419485659087</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1053,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>440.0</v>
+        <v>437.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.75196060550793</v>
+        <v>-20.299106328652194</v>
       </c>
     </row>
     <row r="10">
@@ -1067,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>468.0</v>
+        <v>467.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.645267189494787</v>
+        <v>-14.827649097209544</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>404.0</v>
+        <v>412.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.757676165230823</v>
+        <v>-8.990501435829454</v>
       </c>
     </row>
     <row r="9">
@@ -1179,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>471.5</v>
+        <v>475.5</v>
       </c>
       <c r="D9" t="n">
-        <v>4.15286061409322</v>
+        <v>5.036447978793905</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1577,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1499.0</v>
+        <v>1488.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-32.87358380726343</v>
+        <v>-33.36617258519545</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2055.0</v>
+        <v>2036.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.975460122699364</v>
+        <v>-8.82629528458195</v>
       </c>
     </row>
     <row r="7">
@@ -1605,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2336.0</v>
+        <v>2315.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.6079441135641295</v>
+        <v>3.667547355693904</v>
       </c>
     </row>
     <row r="8">
@@ -1619,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2024.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.363664860507791</v>
+        <v>-10.169719224396557</v>
       </c>
     </row>
     <row r="9">
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1978.5</v>
+        <v>1961.25</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.401191169226626</v>
+        <v>-12.173659934620025</v>
       </c>
     </row>
   </sheetData>
